--- a/data/perfstats.xlsx
+++ b/data/perfstats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_perfstats" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,12 +116,6 @@
     <t>BandWidth:</t>
   </si>
   <si>
-    <t xml:space="preserve">PortId: </t>
-  </si>
-  <si>
-    <t>LinkStats:</t>
-  </si>
-  <si>
     <t>Controller Performance Statistics</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   <si>
     <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtrlId:</t>
+  </si>
+  <si>
+    <t>PortId:</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,13 +585,12 @@
     <col min="2" max="2" width="43.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -602,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -619,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -645,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -653,16 +652,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -670,16 +681,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -687,13 +698,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -727,15 +738,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -743,7 +754,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -751,7 +762,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -787,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -795,15 +806,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -811,7 +822,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -827,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -847,15 +858,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>

--- a/data/perfstats.xlsx
+++ b/data/perfstats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="start_perfstats" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>PortId:</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -575,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,63 +720,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -784,47 +806,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.375" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -836,39 +870,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
